--- a/biology/Botanique/Jules_Boissonade/Jules_Boissonade.xlsx
+++ b/biology/Botanique/Jules_Boissonade/Jules_Boissonade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'abbé Jules Boissonade, aussi dit Jules Boissonnade, né le 3 décembre 1832 à Mende et mort le 5 mars 1897 dans la même ville, est un spéléologue, archéologue[1] et botaniste[2] français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'abbé Jules Boissonade, aussi dit Jules Boissonnade, né le 3 décembre 1832 à Mende et mort le 5 mars 1897 dans la même ville, est un spéléologue, archéologue et botaniste français.
 </t>
         </is>
       </c>
@@ -513,11 +525,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et famille
-Jean Jules Augustin Boissonade naît en 1832 à Mende, fils d'Augustin Boissonade, propriétaire, et de Marie Virginie Berger, son épouse[3].
-Activités spéléologiques
-Jules Boissonade a fouillé de nombreuses grottes en Lozère. Cependant, peu de ses résultats ont été publiés.
-Devenu prêtre, aumônier militaire puis aumônier des prisons, il meurt en 1897 à Mende[4].
+          <t>Jeunesse et famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Jules Augustin Boissonade naît en 1832 à Mende, fils d'Augustin Boissonade, propriétaire, et de Marie Virginie Berger, son épouse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jules_Boissonade</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jules_Boissonade</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Activités spéléologiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jules Boissonade a fouillé de nombreuses grottes en Lozère. Cependant, peu de ses résultats ont été publiés.
+Devenu prêtre, aumônier militaire puis aumônier des prisons, il meurt en 1897 à Mende.
 </t>
         </is>
       </c>
